--- a/src/test/resources/testData/Hydroflask/HydroTestData.xlsx
+++ b/src/test/resources/testData/Hydroflask/HydroTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27172E83-564A-4789-9509-BFB4107E7671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE25090-E7EB-4DF6-ABEA-5A3355097876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:BW36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
